--- a/Excel/Funcao_SE.xlsx
+++ b/Excel/Funcao_SE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C19497B-1462-45FD-A801-589B17B07DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8ED5AA4-37E6-4ED0-B84D-E77587CB6B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="902" firstSheet="6" activeTab="10" xr2:uid="{A1D71C93-AD03-4E23-96D0-6B5E4DB0459A}"/>
+    <workbookView xWindow="343" yWindow="2246" windowWidth="24686" windowHeight="13148" tabRatio="902" firstSheet="6" activeTab="10" xr2:uid="{A1D71C93-AD03-4E23-96D0-6B5E4DB0459A}"/>
   </bookViews>
   <sheets>
     <sheet name="Professor Se ex. 1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="137">
   <si>
     <t>Nome</t>
   </si>
@@ -319,9 +319,6 @@
     <t xml:space="preserve">3) Crie uma fórmula com a função Se que imprima "No prazo" se a data de hoje </t>
   </si>
   <si>
-    <t>1) Crie uma um fórmula com a função Se que imprima "É maça" quando encontrar a palavra Maça.</t>
-  </si>
-  <si>
     <t>e  imprima "Tem Maça" quando encontrar a palavra Maça e "Outra Fruta" caso não encontre.</t>
   </si>
   <si>
@@ -461,6 +458,18 @@
   </si>
   <si>
     <t>2) Crie uma fórmula com a função Se que imprima Laranja quando a fruta for Laranja</t>
+  </si>
+  <si>
+    <t>1) Crie uma um fórmula com a função Se que imprima "É maçã" quando encontrar a palavra Maçã.</t>
+  </si>
+  <si>
+    <t>Maçã</t>
+  </si>
+  <si>
+    <t>maÇã</t>
+  </si>
+  <si>
+    <t>MAçÃ</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1047,7 @@
     </row>
     <row r="4" spans="2:4" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B4" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="23.15" x14ac:dyDescent="0.6">
@@ -1134,7 +1143,7 @@
     </row>
     <row r="17" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B17" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
@@ -1193,7 +1202,7 @@
     </row>
     <row r="29" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B29" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="26.15" x14ac:dyDescent="0.7">
@@ -1283,7 +1292,7 @@
   <dimension ref="B2:C46"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1393,7 +1402,7 @@
     </row>
     <row r="19" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B19" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
@@ -1626,8 +1635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F949F6-4E3D-4D23-A4B1-00964BDC3B94}">
   <dimension ref="B2:E41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1648,7 +1657,7 @@
     </row>
     <row r="4" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B4" s="10" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
@@ -1664,19 +1673,19 @@
     </row>
     <row r="7" spans="2:3" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B7" s="7" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="C7" s="8"/>
     </row>
     <row r="8" spans="2:3" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B8" s="7" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="C8" s="8"/>
     </row>
     <row r="9" spans="2:3" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B9" s="7" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="C9" s="8"/>
     </row>
@@ -1708,12 +1717,12 @@
     </row>
     <row r="17" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B17" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B18" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="26.15" x14ac:dyDescent="0.7">
@@ -1768,12 +1777,12 @@
     </row>
     <row r="30" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B30" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B31" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="26.15" x14ac:dyDescent="0.7">
@@ -1872,13 +1881,13 @@
   <sheetData>
     <row r="2" spans="2:7" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B2" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F2"/>
     </row>
     <row r="3" spans="2:7" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B3" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F3"/>
     </row>
@@ -1966,13 +1975,13 @@
     </row>
     <row r="14" spans="2:7" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B14" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F14"/>
     </row>
     <row r="15" spans="2:7" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B15" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F15"/>
     </row>
@@ -2066,19 +2075,19 @@
     </row>
     <row r="29" spans="2:7" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B29" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F29"/>
     </row>
     <row r="30" spans="2:7" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B30" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F30"/>
     </row>
     <row r="31" spans="2:7" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B31" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F31"/>
     </row>
@@ -2181,13 +2190,13 @@
     </row>
     <row r="46" spans="2:10" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B46" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F46"/>
     </row>
     <row r="47" spans="2:10" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B47" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F47"/>
     </row>
@@ -2337,21 +2346,21 @@
     </row>
     <row r="67" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B67" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D67"/>
       <c r="F67"/>
     </row>
     <row r="68" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B68" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D68"/>
       <c r="F68"/>
     </row>
     <row r="69" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B69" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D69"/>
       <c r="F69"/>
@@ -2366,19 +2375,19 @@
         <v>0</v>
       </c>
       <c r="C71" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="E71" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="F71"/>
     </row>
     <row r="72" spans="2:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B72" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
@@ -2387,7 +2396,7 @@
     </row>
     <row r="73" spans="2:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B73" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -2396,7 +2405,7 @@
     </row>
     <row r="74" spans="2:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B74" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
@@ -2405,7 +2414,7 @@
     </row>
     <row r="75" spans="2:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B75" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -2414,7 +2423,7 @@
     </row>
     <row r="76" spans="2:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B76" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
@@ -2423,7 +2432,7 @@
     </row>
     <row r="77" spans="2:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B77" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
@@ -2465,13 +2474,13 @@
   <sheetData>
     <row r="3" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B3" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3"/>
     </row>
     <row r="4" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B4" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F4"/>
     </row>
@@ -2488,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7"/>
     </row>
@@ -2556,19 +2565,19 @@
     </row>
     <row r="18" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B18" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F18"/>
     </row>
     <row r="19" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B19" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F19"/>
     </row>
     <row r="20" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B20" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20"/>
     </row>
@@ -2617,19 +2626,19 @@
     </row>
     <row r="33" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B33" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F33"/>
     </row>
     <row r="34" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B34" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F34"/>
     </row>
     <row r="35" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B35" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F35"/>
     </row>
@@ -2893,7 +2902,7 @@
   <sheetData>
     <row r="2" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B2" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
@@ -2994,7 +3003,7 @@
     </row>
     <row r="19" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B19" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
@@ -3244,7 +3253,7 @@
     </row>
     <row r="4" spans="2:4" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B4" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="23.15" x14ac:dyDescent="0.6">
@@ -3312,7 +3321,7 @@
     </row>
     <row r="11" spans="2:4" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="B11" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" s="23" t="str">
         <f>IF(LOWER(B11)="maça","É maça","Outra Fruta")</f>
@@ -3346,12 +3355,12 @@
     </row>
     <row r="17" spans="2:5" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B17" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B18" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="26.15" x14ac:dyDescent="0.7">
@@ -3415,7 +3424,7 @@
     </row>
     <row r="24" spans="2:5" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="B24" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C24" s="23" t="str">
         <f t="shared" si="2"/>
@@ -3432,7 +3441,7 @@
     </row>
     <row r="25" spans="2:5" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="B25" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" s="23" t="str">
         <f t="shared" si="2"/>
@@ -3483,12 +3492,12 @@
     </row>
     <row r="30" spans="2:5" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B30" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B31" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="26.15" x14ac:dyDescent="0.7">
@@ -3688,13 +3697,13 @@
   <sheetData>
     <row r="2" spans="2:7" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B2" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F2"/>
     </row>
     <row r="3" spans="2:7" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B3" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F3"/>
     </row>
@@ -3800,13 +3809,13 @@
     </row>
     <row r="14" spans="2:7" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B14" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F14"/>
     </row>
     <row r="15" spans="2:7" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B15" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F15"/>
     </row>
@@ -3920,19 +3929,19 @@
     </row>
     <row r="29" spans="2:7" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B29" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F29"/>
     </row>
     <row r="30" spans="2:7" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B30" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F30"/>
     </row>
     <row r="31" spans="2:7" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B31" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F31"/>
     </row>
@@ -4071,13 +4080,13 @@
     </row>
     <row r="46" spans="2:10" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B46" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F46"/>
     </row>
     <row r="47" spans="2:10" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B47" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F47"/>
     </row>
@@ -4301,21 +4310,21 @@
     </row>
     <row r="67" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B67" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D67"/>
       <c r="F67"/>
     </row>
     <row r="68" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B68" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D68"/>
       <c r="F68"/>
     </row>
     <row r="69" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B69" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D69"/>
       <c r="F69"/>
@@ -4330,19 +4339,19 @@
         <v>0</v>
       </c>
       <c r="C71" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="E71" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="F71"/>
     </row>
     <row r="72" spans="2:6" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="B72" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C72" s="23" t="str">
         <f>LOWER(LEFT(B72,2))</f>
@@ -4361,7 +4370,7 @@
     </row>
     <row r="73" spans="2:6" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="B73" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C73" s="23" t="str">
         <f t="shared" ref="C73:C77" si="8">LOWER(LEFT(B73,2))</f>
@@ -4380,7 +4389,7 @@
     </row>
     <row r="74" spans="2:6" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="B74" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C74" s="23" t="str">
         <f t="shared" si="8"/>
@@ -4398,7 +4407,7 @@
     </row>
     <row r="75" spans="2:6" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="B75" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C75" s="23" t="str">
         <f t="shared" si="8"/>
@@ -4416,7 +4425,7 @@
     </row>
     <row r="76" spans="2:6" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="B76" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C76" s="23" t="str">
         <f t="shared" si="8"/>
@@ -4434,7 +4443,7 @@
     </row>
     <row r="77" spans="2:6" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="B77" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C77" s="23" t="str">
         <f t="shared" si="8"/>
@@ -4485,13 +4494,13 @@
   <sheetData>
     <row r="3" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B3" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3"/>
     </row>
     <row r="4" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B4" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F4"/>
     </row>
@@ -4508,7 +4517,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7"/>
     </row>
@@ -4612,19 +4621,19 @@
     </row>
     <row r="18" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B18" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F18"/>
     </row>
     <row r="19" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B19" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F19"/>
     </row>
     <row r="20" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B20" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20"/>
     </row>
@@ -4638,7 +4647,7 @@
     </row>
     <row r="24" spans="2:6" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="B24" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C24" s="23" t="str">
         <f>IF(OR(LOWER(B24)="azul",
@@ -4667,7 +4676,7 @@
     </row>
     <row r="27" spans="2:6" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="B27" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C27" s="23" t="str">
         <f t="shared" si="1"/>
@@ -4690,19 +4699,19 @@
     </row>
     <row r="33" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B33" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F33"/>
     </row>
     <row r="34" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B34" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F34"/>
     </row>
     <row r="35" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B35" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F35"/>
     </row>
@@ -4792,10 +4801,10 @@
         <v>78</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.4">
@@ -5156,7 +5165,7 @@
     </row>
     <row r="29" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B29" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="26.15" x14ac:dyDescent="0.7">

--- a/Excel/Funcao_SE.xlsx
+++ b/Excel/Funcao_SE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8ED5AA4-37E6-4ED0-B84D-E77587CB6B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FD0EB4-4883-4542-9E49-D01F45852B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="343" yWindow="2246" windowWidth="24686" windowHeight="13148" tabRatio="902" firstSheet="6" activeTab="10" xr2:uid="{A1D71C93-AD03-4E23-96D0-6B5E4DB0459A}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="902" firstSheet="1" activeTab="10" xr2:uid="{A1D71C93-AD03-4E23-96D0-6B5E4DB0459A}"/>
   </bookViews>
   <sheets>
     <sheet name="Professor Se ex. 1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="138">
   <si>
     <t>Nome</t>
   </si>
@@ -470,6 +470,9 @@
   </si>
   <si>
     <t>MAçÃ</t>
+  </si>
+  <si>
+    <t>énúm é um booleano - True or False</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,6 +559,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -577,7 +586,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -613,12 +622,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -702,6 +720,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -1223,7 +1244,7 @@
       </c>
       <c r="D33" s="27">
         <f ca="1">TODAY()</f>
-        <v>45426</v>
+        <v>45427</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="33.450000000000003" x14ac:dyDescent="0.85">
@@ -1291,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B29D7C7-06B1-42C7-92B8-B0301202A6E9}">
   <dimension ref="B2:C46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1633,17 +1654,17 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F949F6-4E3D-4D23-A4B1-00964BDC3B94}">
-  <dimension ref="B2:E41"/>
+  <dimension ref="B2:G41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="48.84375" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.3828125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.23046875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1675,37 +1696,55 @@
       <c r="B7" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8" t="str">
+        <f>IF(LOWER(B7)="maçã","É maçã","Outra Fruta")</f>
+        <v>É maçã</v>
+      </c>
     </row>
     <row r="8" spans="2:3" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B8" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8" t="str">
+        <f t="shared" ref="C8:C12" si="0">IF(LOWER(B8)="maçã","É maçã","Outra Fruta")</f>
+        <v>É maçã</v>
+      </c>
     </row>
     <row r="9" spans="2:3" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B9" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>É maçã</v>
+      </c>
     </row>
     <row r="10" spans="2:3" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Outra Fruta</v>
+      </c>
     </row>
     <row r="11" spans="2:3" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Outra Fruta</v>
+      </c>
     </row>
     <row r="12" spans="2:3" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Outra Fruta</v>
+      </c>
     </row>
     <row r="15" spans="2:3" ht="30.9" x14ac:dyDescent="0.8">
       <c r="B15" s="4" t="s">
@@ -1715,77 +1754,129 @@
     <row r="16" spans="2:3" ht="30.9" x14ac:dyDescent="0.8">
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
+    <row r="17" spans="2:4" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B17" s="10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
+    <row r="18" spans="2:4" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B18" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="26.15" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:4" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B20" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" ht="26.15" x14ac:dyDescent="0.7">
+      <c r="D20" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B21" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="2:3" ht="26.15" x14ac:dyDescent="0.7">
+      <c r="C21" s="8" t="str">
+        <f>IF(ISNUMBER(SEARCH("maça",LOWER(B21))),"Tem Maçã","Outra Fruta")</f>
+        <v>Tem Maçã</v>
+      </c>
+      <c r="D21" t="b">
+        <f>ISNUMBER(SEARCH("maça",LOWER(B21)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="2:3" ht="26.15" x14ac:dyDescent="0.7">
+      <c r="C22" s="8" t="str">
+        <f t="shared" ref="C22:C27" si="1">IF(ISNUMBER(SEARCH("maça",LOWER(B22))),"Tem Maçã","Outra Fruta")</f>
+        <v>Tem Maçã</v>
+      </c>
+      <c r="D22" t="b">
+        <f t="shared" ref="D22:D27" si="2">ISNUMBER(SEARCH("maça",LOWER(B22)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="2:3" ht="26.15" x14ac:dyDescent="0.7">
+      <c r="C23" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Outra Fruta</v>
+      </c>
+      <c r="D23" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B24" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="2:3" ht="26.15" x14ac:dyDescent="0.7">
+      <c r="C24" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Tem Maçã</v>
+      </c>
+      <c r="D24" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B25" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="2:3" ht="26.15" x14ac:dyDescent="0.7">
+      <c r="C25" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Outra Fruta</v>
+      </c>
+      <c r="D25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B26" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="2:3" ht="26.15" x14ac:dyDescent="0.7">
+      <c r="C26" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Tem Maçã</v>
+      </c>
+      <c r="D26" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B27" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="8"/>
-    </row>
-    <row r="30" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
+      <c r="C27" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Outra Fruta</v>
+      </c>
+      <c r="D27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B30" s="10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
+    <row r="31" spans="2:4" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B31" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="26.15" x14ac:dyDescent="0.7">
+    <row r="34" spans="2:7" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B34" s="6" t="s">
         <v>0</v>
       </c>
@@ -1798,62 +1889,162 @@
       <c r="E34" s="6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" ht="26.15" x14ac:dyDescent="0.7">
+      <c r="G34" s="31"/>
+    </row>
+    <row r="35" spans="2:7" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B35" s="16">
         <v>44957</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="2:5" ht="26.15" x14ac:dyDescent="0.7">
+      <c r="C35" s="8">
+        <f>WEEKDAY(B35)</f>
+        <v>3</v>
+      </c>
+      <c r="D35" s="8" t="str">
+        <f>IF($C35=1,"Domingo, não pode vender",
+IF($C35=2,"Segunda-feira, boas vendas!",
+IF($C35=3,"Terça-feira, boas vendas!",
+IF($C35=4,"Quarta-feira, boas vendas!",
+IF($C35=5,"Quinta-feira, boas vendas!",
+IF($C35=6,"Sexta-feria, boas vendas!",
+IF($C35=7,"Sábado, não pode vender")))))))</f>
+        <v>Terça-feira, boas vendas!</v>
+      </c>
+      <c r="E35" s="8" t="str">
+        <f>IF(WEEKDAY(B35)=1,TEXT(B35,"dddd") &amp;", não pode vender",
+IF(WEEKDAY(B35)=2,TEXT(B35,"dddd") &amp;", boas vendas!",
+IF(WEEKDAY(B35)=3,TEXT(B35,"dddd") &amp;", boas vendas!",
+IF(WEEKDAY(B35)=4,TEXT(B35,"dddd") &amp;", boas vendas!",
+IF(WEEKDAY(B35)=5,TEXT(B35,"dddd") &amp;", boas vendas!",
+IF(WEEKDAY(B35)=6,TEXT(B35,"dddd") &amp;", boas vendas!",
+IF(WEEKDAY(B35)=7,TEXT(B35,"dddd") &amp;", não pode vender", "-")))))))</f>
+        <v>terça-feira, boas vendas!</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B36" s="16">
         <v>44940</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="2:5" ht="26.15" x14ac:dyDescent="0.7">
+      <c r="C36" s="8">
+        <f t="shared" ref="C36:C41" si="3">WEEKDAY(B36)</f>
+        <v>7</v>
+      </c>
+      <c r="D36" s="8" t="str">
+        <f t="shared" ref="D36:E41" si="4">IF($C36=1,"Domingo, não pode vender",
+IF($C36=2,"Segunda-feira, boas vendas!",
+IF($C36=3,"Terça-feira, boas vendas!",
+IF($C36=4,"Quarta-feira, boas vendas!",
+IF($C36=5,"Quinta-feira, boas vendas!",
+IF($C36=6,"Sexta-feria, boas vendas!",
+IF($C36=7,"Sábado, não pode vender")))))))</f>
+        <v>Sábado, não pode vender</v>
+      </c>
+      <c r="E36" s="8" t="str">
+        <f>IF(WEEKDAY(B36)=1,TEXT(B36,"dddd") &amp;", não pode vender",
+IF(WEEKDAY(B36)=2,TEXT(B36,"dddd") &amp;", boas vendas!",
+IF(WEEKDAY(B36)=3,TEXT(B36,"dddd") &amp;", boas vendas!",
+IF(WEEKDAY(B36)=4,TEXT(B36,"dddd") &amp;", boas vendas!",
+IF(WEEKDAY(B36)=5,TEXT(B36,"dddd") &amp;", boas vendas!",
+IF(WEEKDAY(B36)=6,TEXT(B36,"dddd") &amp;", boas vendas!",
+IF(WEEKDAY(B36)=7,TEXT(B36,"dddd") &amp;", não pode vender", "-")))))))</f>
+        <v>sábado, não pode vender</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B37" s="16">
         <v>44930</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="2:5" ht="26.15" x14ac:dyDescent="0.7">
+      <c r="C37" s="8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D37" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>Quarta-feira, boas vendas!</v>
+      </c>
+      <c r="E37" s="8" t="str">
+        <f t="shared" ref="E36:E41" si="5">IF(WEEKDAY(B37)=1,TEXT(B37,"dddd") &amp;", não pode vender",
+IF(WEEKDAY(B37)=2,TEXT(B37,"dddd") &amp;", boas vendas!",
+IF(WEEKDAY(B37)=3,TEXT(B37,"dddd") &amp;", boas vendas!",
+IF(WEEKDAY(B37)=4,TEXT(B37,"dddd") &amp;", boas vendas!",
+IF(WEEKDAY(B37)=5,TEXT(B37,"dddd") &amp;", boas vendas!",
+IF(WEEKDAY(B37)=6,TEXT(B37,"dddd") &amp;", boas vendas!",
+IF(WEEKDAY(B37)=7,TEXT(B37,"dddd") &amp;", não pode vender", "-")))))))</f>
+        <v>quarta-feira, boas vendas!</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B38" s="16">
         <v>44944</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="2:5" ht="26.15" x14ac:dyDescent="0.7">
+      <c r="C38" s="8">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D38" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>Quarta-feira, boas vendas!</v>
+      </c>
+      <c r="E38" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>quarta-feira, boas vendas!</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B39" s="16">
         <v>44935</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="2:5" ht="26.15" x14ac:dyDescent="0.7">
+      <c r="C39" s="8">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D39" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>Segunda-feira, boas vendas!</v>
+      </c>
+      <c r="E39" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>segunda-feira, boas vendas!</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B40" s="16">
         <v>44946</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" spans="2:5" ht="26.15" x14ac:dyDescent="0.7">
+      <c r="C40" s="8">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D40" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>Sexta-feria, boas vendas!</v>
+      </c>
+      <c r="E40" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>sexta-feira, boas vendas!</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B41" s="16">
         <v>44927</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
+      <c r="C41" s="8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="D41" s="8" t="str">
+        <f>IF($C41=1,"Domingo, não pode vender",
+IF($C41=2,"Segunda-feira, boas vendas!",
+IF($C41=3,"Terça-feira, boas vendas!",
+IF($C41=4,"Quarta-feira, boas vendas!",
+IF($C41=5,"Quinta-feira, boas vendas!",
+IF($C41=6,"Sexta-feria, boas vendas!",
+IF($C41=7,"Sábado, não pode vender")))))))</f>
+        <v>Domingo, não pode vender</v>
+      </c>
+      <c r="E41" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>domingo, não pode vender</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3231,8 +3422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC1BD86-CCC5-4DE7-83B7-340357178911}">
   <dimension ref="B2:E41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/Excel/Funcao_SE.xlsx
+++ b/Excel/Funcao_SE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FD0EB4-4883-4542-9E49-D01F45852B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5B4705-A5B6-4D9A-B89E-4C3EE39E76C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="902" firstSheet="1" activeTab="10" xr2:uid="{A1D71C93-AD03-4E23-96D0-6B5E4DB0459A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="902" firstSheet="6" activeTab="11" xr2:uid="{A1D71C93-AD03-4E23-96D0-6B5E4DB0459A}"/>
   </bookViews>
   <sheets>
     <sheet name="Professor Se ex. 1" sheetId="1" r:id="rId1"/>
@@ -693,9 +693,6 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -722,6 +719,9 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1097,7 +1097,7 @@
       <c r="C8" s="7">
         <v>9</v>
       </c>
-      <c r="D8" s="23" t="str">
+      <c r="D8" s="22" t="str">
         <f>IF(C8&gt;=6,"Aprovado(a)","Reprovado(a)")</f>
         <v>Aprovado(a)</v>
       </c>
@@ -1109,7 +1109,7 @@
       <c r="C9" s="7">
         <v>5</v>
       </c>
-      <c r="D9" s="23" t="str">
+      <c r="D9" s="22" t="str">
         <f>IF(C9&gt;=6,"Aprovado(a)","Reprovado(a)")</f>
         <v>Reprovado(a)</v>
       </c>
@@ -1121,7 +1121,7 @@
       <c r="C10" s="7">
         <v>6</v>
       </c>
-      <c r="D10" s="23" t="str">
+      <c r="D10" s="22" t="str">
         <f>IF(C10&gt;=6,"Aprovado(a)","Reprovado(a)")</f>
         <v>Aprovado(a)</v>
       </c>
@@ -1133,7 +1133,7 @@
       <c r="C11" s="7">
         <v>7</v>
       </c>
-      <c r="D11" s="23" t="str">
+      <c r="D11" s="22" t="str">
         <f t="shared" ref="D11:D13" si="0">IF(C11&gt;=6,"Aprovado(a)","Reprovado(a)")</f>
         <v>Aprovado(a)</v>
       </c>
@@ -1145,7 +1145,7 @@
       <c r="C12" s="7">
         <v>10</v>
       </c>
-      <c r="D12" s="23" t="str">
+      <c r="D12" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Aprovado(a)</v>
       </c>
@@ -1157,7 +1157,7 @@
       <c r="C13" s="7">
         <v>9</v>
       </c>
-      <c r="D13" s="23" t="str">
+      <c r="D13" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Aprovado(a)</v>
       </c>
@@ -1184,7 +1184,7 @@
       <c r="B21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="23" t="str">
+      <c r="C21" s="22" t="str">
         <f>IF(B21="Laranja","Laranja","Fruta inválida")</f>
         <v>Laranja</v>
       </c>
@@ -1193,7 +1193,7 @@
       <c r="B22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="23" t="str">
+      <c r="C22" s="22" t="str">
         <f>IF(B22="Laranja","Laranja","Fruta inválida")</f>
         <v>Fruta inválida</v>
       </c>
@@ -1202,7 +1202,7 @@
       <c r="B23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="23" t="str">
+      <c r="C23" s="22" t="str">
         <f>IF(B23="Laranja","Laranja","Fruta inválida")</f>
         <v>Laranja</v>
       </c>
@@ -1211,7 +1211,7 @@
       <c r="B24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="23" t="str">
+      <c r="C24" s="22" t="str">
         <f>IF(B24="Laranja","Laranja","Fruta inválida")</f>
         <v>Fruta inválida</v>
       </c>
@@ -1238,20 +1238,20 @@
       <c r="B33" s="16">
         <v>45248</v>
       </c>
-      <c r="C33" s="23" t="str">
+      <c r="C33" s="22" t="str">
         <f ca="1">IF(TODAY()&gt;B33,"Vencido","No prazo")</f>
         <v>Vencido</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="26">
         <f ca="1">TODAY()</f>
-        <v>45427</v>
+        <v>45428</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="B34" s="16">
         <v>45261</v>
       </c>
-      <c r="C34" s="23" t="str">
+      <c r="C34" s="22" t="str">
         <f t="shared" ref="C34:C39" ca="1" si="1">IF(TODAY()&gt;B34,"Vencido","No prazo")</f>
         <v>Vencido</v>
       </c>
@@ -1260,7 +1260,7 @@
       <c r="B35" s="16">
         <v>44905</v>
       </c>
-      <c r="C35" s="23" t="str">
+      <c r="C35" s="22" t="str">
         <f ca="1">IF(TODAY()&gt;B35,"Vencido","No prazo")</f>
         <v>Vencido</v>
       </c>
@@ -1269,7 +1269,7 @@
       <c r="B36" s="16">
         <v>45098</v>
       </c>
-      <c r="C36" s="23" t="str">
+      <c r="C36" s="22" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Vencido</v>
       </c>
@@ -1278,7 +1278,7 @@
       <c r="B37" s="16">
         <v>44710</v>
       </c>
-      <c r="C37" s="23" t="str">
+      <c r="C37" s="22" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Vencido</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="B38" s="16">
         <v>46848</v>
       </c>
-      <c r="C38" s="23" t="str">
+      <c r="C38" s="22" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>No prazo</v>
       </c>
@@ -1296,7 +1296,7 @@
       <c r="B39" s="16">
         <v>45476</v>
       </c>
-      <c r="C39" s="23" t="str">
+      <c r="C39" s="22" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>No prazo</v>
       </c>
@@ -1656,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F949F6-4E3D-4D23-A4B1-00964BDC3B94}">
   <dimension ref="B2:G41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1889,7 +1889,7 @@
       <c r="E34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G34" s="31"/>
+      <c r="G34" s="30"/>
     </row>
     <row r="35" spans="2:7" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B35" s="16">
@@ -1929,7 +1929,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="8" t="str">
-        <f t="shared" ref="D36:E41" si="4">IF($C36=1,"Domingo, não pode vender",
+        <f t="shared" ref="D36:D40" si="4">IF($C36=1,"Domingo, não pode vender",
 IF($C36=2,"Segunda-feira, boas vendas!",
 IF($C36=3,"Terça-feira, boas vendas!",
 IF($C36=4,"Quarta-feira, boas vendas!",
@@ -1962,7 +1962,7 @@
         <v>Quarta-feira, boas vendas!</v>
       </c>
       <c r="E37" s="8" t="str">
-        <f t="shared" ref="E36:E41" si="5">IF(WEEKDAY(B37)=1,TEXT(B37,"dddd") &amp;", não pode vender",
+        <f t="shared" ref="E37:E41" si="5">IF(WEEKDAY(B37)=1,TEXT(B37,"dddd") &amp;", não pode vender",
 IF(WEEKDAY(B37)=2,TEXT(B37,"dddd") &amp;", boas vendas!",
 IF(WEEKDAY(B37)=3,TEXT(B37,"dddd") &amp;", boas vendas!",
 IF(WEEKDAY(B37)=4,TEXT(B37,"dddd") &amp;", boas vendas!",
@@ -2056,14 +2056,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D736C7B-5639-46E7-A045-1829B91CFDE5}">
   <dimension ref="B2:J79"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="27.3046875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.53515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.53515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="27.4609375" customWidth="1"/>
     <col min="6" max="6" width="27.3046875" style="1" customWidth="1"/>
     <col min="7" max="7" width="27.3046875" customWidth="1"/>
@@ -2111,12 +2111,15 @@
       <c r="C6" s="17">
         <v>1</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8" t="str">
+        <f>IF(AND(LOWER($F$6)="banana", C6=$G$6),"Comprar Banana dia 5","Não comprar")</f>
+        <v>Não comprar</v>
+      </c>
       <c r="F6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="26.15" x14ac:dyDescent="0.7">
@@ -2126,7 +2129,10 @@
       <c r="C7" s="17">
         <v>10</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="8" t="str">
+        <f t="shared" ref="D7:D11" si="0">IF(AND(LOWER($F$6)="banana", C7=$G$6),"Comprar Banana dia 5","Não comprar")</f>
+        <v>Comprar Banana dia 5</v>
+      </c>
     </row>
     <row r="8" spans="2:7" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B8" s="7" t="s">
@@ -2135,7 +2141,10 @@
       <c r="C8" s="17">
         <v>15</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Não comprar</v>
+      </c>
     </row>
     <row r="9" spans="2:7" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B9" s="7" t="s">
@@ -2144,7 +2153,10 @@
       <c r="C9" s="17">
         <v>9</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8" t="str">
+        <f>IF(AND(LOWER($F$6)="banana", C9=$G$6),"Comprar Banana dia 5","Não comprar")</f>
+        <v>Não comprar</v>
+      </c>
     </row>
     <row r="10" spans="2:7" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B10" s="7" t="s">
@@ -2153,7 +2165,10 @@
       <c r="C10" s="17">
         <v>5</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Não comprar</v>
+      </c>
     </row>
     <row r="11" spans="2:7" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B11" s="7" t="s">
@@ -2162,7 +2177,10 @@
       <c r="C11" s="17">
         <v>9</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Não comprar</v>
+      </c>
     </row>
     <row r="14" spans="2:7" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B14" s="10" t="s">
@@ -2200,7 +2218,11 @@
       <c r="C19" s="17">
         <v>6</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="8" t="str">
+        <f>IF(AND(LOWER($F$20)=$F$20,C19=$G$20),"Comprar maçã dia 6",
+IF(AND(LOWER($F$19)=$F$19,C19=$G$19),"Comprar Banana dia 5","Não Comprar"))</f>
+        <v>Comprar maçã dia 6</v>
+      </c>
       <c r="F19" s="7" t="s">
         <v>10</v>
       </c>
@@ -2215,7 +2237,11 @@
       <c r="C20" s="17">
         <v>10</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="8" t="str">
+        <f t="shared" ref="D20:D24" si="1">IF(AND(LOWER($F$20)=$F$20,C20=$G$20),"Comprar maçã dia 6",
+IF(AND(LOWER($F$19)=$F$19,C20=$G$19),"Comprar Banana dia 5","Não Comprar"))</f>
+        <v>Não Comprar</v>
+      </c>
       <c r="F20" s="7" t="s">
         <v>60</v>
       </c>
@@ -2230,7 +2256,10 @@
       <c r="C21" s="17">
         <v>4</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Não Comprar</v>
+      </c>
     </row>
     <row r="22" spans="2:7" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B22" s="7" t="s">
@@ -2239,7 +2268,10 @@
       <c r="C22" s="17">
         <v>9</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Não Comprar</v>
+      </c>
     </row>
     <row r="23" spans="2:7" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B23" s="7" t="s">
@@ -2248,7 +2280,10 @@
       <c r="C23" s="17">
         <v>5</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Comprar Banana dia 5</v>
+      </c>
     </row>
     <row r="24" spans="2:7" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B24" s="7" t="s">
@@ -2257,7 +2292,10 @@
       <c r="C24" s="17">
         <v>9</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Não Comprar</v>
+      </c>
     </row>
     <row r="27" spans="2:7" ht="28.3" x14ac:dyDescent="0.75">
       <c r="B27" s="18" t="s">
@@ -2307,8 +2345,14 @@
       <c r="C35" s="19">
         <v>44936</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="20"/>
+      <c r="D35" s="8" t="str">
+        <f>IF(AND(B35="Banana",C35&gt;=$G$34,C35&lt;=$G$35),"Comprar Banana - 16/01 e 28/01","Não comprar")</f>
+        <v>Não comprar</v>
+      </c>
+      <c r="E35" s="8" t="str">
+        <f>IF(AND(B35="Banana"),"É banana","Outra fruta")</f>
+        <v>Outra fruta</v>
+      </c>
       <c r="F35"/>
       <c r="G35" s="19">
         <v>44954</v>
@@ -2321,8 +2365,14 @@
       <c r="C36" s="19">
         <v>44942</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="20"/>
+      <c r="D36" s="8" t="str">
+        <f t="shared" ref="D36:D40" si="2">IF(AND(B36="Banana",C36&gt;=$G$34,C36&lt;=$G$35),"Comprar Banana - 16/01 e 28/01","Não comprar")</f>
+        <v>Comprar Banana - 16/01 e 28/01</v>
+      </c>
+      <c r="E36" s="8" t="str">
+        <f t="shared" ref="E36:E40" si="3">IF(AND(B36="Banana"),"É banana","Outra fruta")</f>
+        <v>É banana</v>
+      </c>
       <c r="F36"/>
       <c r="J36" s="1"/>
     </row>
@@ -2333,8 +2383,14 @@
       <c r="C37" s="19">
         <v>44930</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="20"/>
+      <c r="D37" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Não comprar</v>
+      </c>
+      <c r="E37" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>É banana</v>
+      </c>
       <c r="F37"/>
       <c r="G37" s="1"/>
     </row>
@@ -2345,8 +2401,14 @@
       <c r="C38" s="19">
         <v>44946</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="20"/>
+      <c r="D38" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Não comprar</v>
+      </c>
+      <c r="E38" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Outra fruta</v>
+      </c>
       <c r="F38"/>
       <c r="G38" s="1"/>
     </row>
@@ -2357,8 +2419,14 @@
       <c r="C39" s="19">
         <v>44929</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="20"/>
+      <c r="D39" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Não comprar</v>
+      </c>
+      <c r="E39" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>É banana</v>
+      </c>
       <c r="F39"/>
       <c r="G39" s="1"/>
     </row>
@@ -2369,10 +2437,19 @@
       <c r="C40" s="19">
         <v>44949</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="20"/>
+      <c r="D40" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Comprar Banana - 16/01 e 28/01</v>
+      </c>
+      <c r="E40" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>É banana</v>
+      </c>
       <c r="F40"/>
       <c r="G40" s="1"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D42" s="31"/>
     </row>
     <row r="44" spans="2:10" ht="28.3" x14ac:dyDescent="0.75">
       <c r="B44" s="18" t="s">
@@ -2458,10 +2535,25 @@
       <c r="C56" s="7">
         <v>9</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
+      <c r="D56" s="8" t="str">
+        <f>IF(AND(C56&gt;=6,C56&lt;=10),"Aprovado(a)","-")</f>
+        <v>Aprovado(a)</v>
+      </c>
+      <c r="E56" s="8" t="str">
+        <f>IF(AND(C56&gt;=2,C56&lt;6),"Recuperação","-")</f>
+        <v>-</v>
+      </c>
+      <c r="F56" s="8" t="str">
+        <f>IF(AND(C56&lt;2),"Reprovado(a)","-")</f>
+        <v>-</v>
+      </c>
+      <c r="G56" s="8" t="str">
+        <f>IF(AND(C56&gt;=6,C56&lt;=10),"Aprovado(a)",
+IF(AND(C56&gt;10),"Número errado",
+IF(AND(C56&gt;=2,C56&lt;6),"Recuperação",
+IF(AND(C56&lt;2),"Reprovado(a)","-"))))</f>
+        <v>Aprovado(a)</v>
+      </c>
     </row>
     <row r="57" spans="2:7" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B57" s="7" t="s">
@@ -2470,10 +2562,25 @@
       <c r="C57" s="7">
         <v>5</v>
       </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
+      <c r="D57" s="8" t="str">
+        <f t="shared" ref="D57:D61" si="4">IF(AND(C57&gt;=6,C57&lt;=10),"Aprovado(a)","-")</f>
+        <v>-</v>
+      </c>
+      <c r="E57" s="8" t="str">
+        <f>IF(AND(C57&gt;=2,C57&lt;6),"Recuperação","-")</f>
+        <v>Recuperação</v>
+      </c>
+      <c r="F57" s="8" t="str">
+        <f t="shared" ref="F57:F61" si="5">IF(AND(C57&lt;2),"Reprovado(a)","-")</f>
+        <v>-</v>
+      </c>
+      <c r="G57" s="8" t="str">
+        <f t="shared" ref="G57:G61" si="6">IF(AND(C57&gt;=6,C57&lt;=10),"Aprovado(a)",
+IF(AND(C57&gt;10),"Número errado",
+IF(AND(C57&gt;=2,C57&lt;6),"Recuperação",
+IF(AND(C57&lt;2),"Reprovado(a)","-"))))</f>
+        <v>Recuperação</v>
+      </c>
     </row>
     <row r="58" spans="2:7" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B58" s="7" t="s">
@@ -2482,10 +2589,22 @@
       <c r="C58" s="7">
         <v>5</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
+      <c r="D58" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="E58" s="8" t="str">
+        <f>IF(AND(C58&gt;=2,C58&lt;6),"Recuperação","-")</f>
+        <v>Recuperação</v>
+      </c>
+      <c r="F58" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="G58" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>Recuperação</v>
+      </c>
     </row>
     <row r="59" spans="2:7" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B59" s="7" t="s">
@@ -2494,10 +2613,22 @@
       <c r="C59" s="7">
         <v>7</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
+      <c r="D59" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>Aprovado(a)</v>
+      </c>
+      <c r="E59" s="8" t="str">
+        <f t="shared" ref="E57:E61" si="7">IF(AND(C59&gt;=2,C59&lt;6),"Recuperação","-")</f>
+        <v>-</v>
+      </c>
+      <c r="F59" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="G59" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>Aprovado(a)</v>
+      </c>
     </row>
     <row r="60" spans="2:7" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B60" s="7" t="s">
@@ -2506,10 +2637,22 @@
       <c r="C60" s="7">
         <v>1.5</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
+      <c r="D60" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="E60" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="F60" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>Reprovado(a)</v>
+      </c>
+      <c r="G60" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>Reprovado(a)</v>
+      </c>
     </row>
     <row r="61" spans="2:7" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B61" s="7" t="s">
@@ -2518,10 +2661,22 @@
       <c r="C61" s="7">
         <v>9</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
+      <c r="D61" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>Aprovado(a)</v>
+      </c>
+      <c r="E61" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="F61" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+      <c r="G61" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>Aprovado(a)</v>
+      </c>
     </row>
     <row r="65" spans="2:6" ht="30.9" x14ac:dyDescent="0.8">
       <c r="B65" s="4" t="s">
@@ -2543,14 +2698,14 @@
       <c r="F67"/>
     </row>
     <row r="68" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D68"/>
       <c r="F68"/>
     </row>
     <row r="69" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="21" t="s">
         <v>108</v>
       </c>
       <c r="D69"/>
@@ -2948,7 +3103,7 @@
       <c r="D6" s="11">
         <v>5</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <f>IF(C6="F",D6-$H$6,D6-$H$7)</f>
         <v>2.5</v>
       </c>
@@ -2969,7 +3124,7 @@
       <c r="D7" s="11">
         <v>5</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <f t="shared" ref="E7:E13" si="0">IF(C7="F",D7-$H$6,D7-$H$7)</f>
         <v>2.5</v>
       </c>
@@ -2990,7 +3145,7 @@
       <c r="D8" s="11">
         <v>5</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -3005,7 +3160,7 @@
       <c r="D9" s="11">
         <v>5</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -3020,7 +3175,7 @@
       <c r="D10" s="11">
         <v>5</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <f>IF(C10="F",D10-$H$6,D10-$H$7)</f>
         <v>4</v>
       </c>
@@ -3035,7 +3190,7 @@
       <c r="D11" s="11">
         <v>5</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
@@ -3050,7 +3205,7 @@
       <c r="D12" s="11">
         <v>5</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -3065,7 +3220,7 @@
       <c r="D13" s="11">
         <v>5</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
@@ -3131,7 +3286,7 @@
       <c r="B9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="23" t="str">
+      <c r="C9" s="22" t="str">
         <f>IF(B9="A","Letra A",
 IF(B9="B","Letra B",
 IF(B9="C","Letra C","Outra Letra")))</f>
@@ -3142,7 +3297,7 @@
       <c r="B10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="23" t="str">
+      <c r="C10" s="22" t="str">
         <f>IF(B10="A","Letra A",
 IF(B10="B","Letra B",
 IF(B10="C","Letra C","Outra Letra")))</f>
@@ -3153,7 +3308,7 @@
       <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="23" t="str">
+      <c r="C11" s="22" t="str">
         <f t="shared" ref="C11:C14" si="0">IF(B11="A","Letra A",
 IF(B11="B","Letra B",
 IF(B11="C","Letra C","Outra Letra")))</f>
@@ -3164,7 +3319,7 @@
       <c r="B12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="23" t="str">
+      <c r="C12" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Letra B</v>
       </c>
@@ -3173,7 +3328,7 @@
       <c r="B13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="23" t="str">
+      <c r="C13" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Outra Letra</v>
       </c>
@@ -3182,7 +3337,7 @@
       <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="23" t="str">
+      <c r="C14" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Letra C</v>
       </c>
@@ -3244,7 +3399,7 @@
       <c r="B29" s="7">
         <v>100</v>
       </c>
-      <c r="C29" s="23" t="str">
+      <c r="C29" s="22" t="str">
         <f>IF(B29&gt;100,"Maior que 100",
 IF(B29&gt;=80,"Entre 80 e 100",
 IF(B29&gt;=60,"Entre 60 e 79",
@@ -3258,7 +3413,7 @@
       <c r="B30" s="7">
         <v>80</v>
       </c>
-      <c r="C30" s="23" t="str">
+      <c r="C30" s="22" t="str">
         <f t="shared" ref="C30:C46" si="1">IF(B30&gt;100,"Maior que 100",
 IF(B30&gt;=80,"Entre 80 e 100",
 IF(B30&gt;=60,"Entre 60 e 79",
@@ -3272,7 +3427,7 @@
       <c r="B31" s="7">
         <v>60</v>
       </c>
-      <c r="C31" s="23" t="str">
+      <c r="C31" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Entre 60 e 79</v>
       </c>
@@ -3281,7 +3436,7 @@
       <c r="B32" s="7">
         <v>40</v>
       </c>
-      <c r="C32" s="23" t="str">
+      <c r="C32" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Entre 40 e 59</v>
       </c>
@@ -3290,7 +3445,7 @@
       <c r="B33" s="7">
         <v>20</v>
       </c>
-      <c r="C33" s="23" t="str">
+      <c r="C33" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Entre 20 e 39</v>
       </c>
@@ -3299,7 +3454,7 @@
       <c r="B34" s="7">
         <v>0</v>
       </c>
-      <c r="C34" s="23" t="str">
+      <c r="C34" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Entre 0 e 19</v>
       </c>
@@ -3308,7 +3463,7 @@
       <c r="B35" s="7">
         <v>30</v>
       </c>
-      <c r="C35" s="23" t="str">
+      <c r="C35" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Entre 20 e 39</v>
       </c>
@@ -3317,7 +3472,7 @@
       <c r="B36" s="7">
         <v>123</v>
       </c>
-      <c r="C36" s="23" t="str">
+      <c r="C36" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Maior que 100</v>
       </c>
@@ -3326,7 +3481,7 @@
       <c r="B37" s="7">
         <v>105</v>
       </c>
-      <c r="C37" s="23" t="str">
+      <c r="C37" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Maior que 100</v>
       </c>
@@ -3335,7 +3490,7 @@
       <c r="B38" s="7">
         <v>-3</v>
       </c>
-      <c r="C38" s="23" t="str">
+      <c r="C38" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Menor que ZERO</v>
       </c>
@@ -3344,7 +3499,7 @@
       <c r="B39" s="7">
         <v>97</v>
       </c>
-      <c r="C39" s="23" t="str">
+      <c r="C39" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Entre 80 e 100</v>
       </c>
@@ -3353,7 +3508,7 @@
       <c r="B40" s="7">
         <v>39</v>
       </c>
-      <c r="C40" s="23" t="str">
+      <c r="C40" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Entre 20 e 39</v>
       </c>
@@ -3362,7 +3517,7 @@
       <c r="B41" s="7">
         <v>88</v>
       </c>
-      <c r="C41" s="23" t="str">
+      <c r="C41" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Entre 80 e 100</v>
       </c>
@@ -3371,7 +3526,7 @@
       <c r="B42" s="7">
         <v>113</v>
       </c>
-      <c r="C42" s="23" t="str">
+      <c r="C42" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Maior que 100</v>
       </c>
@@ -3380,7 +3535,7 @@
       <c r="B43" s="7">
         <v>24</v>
       </c>
-      <c r="C43" s="23" t="str">
+      <c r="C43" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Entre 20 e 39</v>
       </c>
@@ -3389,7 +3544,7 @@
       <c r="B44" s="7">
         <v>41</v>
       </c>
-      <c r="C44" s="23" t="str">
+      <c r="C44" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Entre 40 e 59</v>
       </c>
@@ -3398,7 +3553,7 @@
       <c r="B45" s="7">
         <v>99</v>
       </c>
-      <c r="C45" s="23" t="str">
+      <c r="C45" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Entre 80 e 100</v>
       </c>
@@ -3407,7 +3562,7 @@
       <c r="B46" s="7">
         <v>104</v>
       </c>
-      <c r="C46" s="23" t="str">
+      <c r="C46" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Maior que 100</v>
       </c>
@@ -3462,11 +3617,11 @@
       <c r="B7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="23" t="str">
+      <c r="C7" s="22" t="str">
         <f>IF(LOWER(B7)="maça","É maça","Outra Fruta")</f>
         <v>É maça</v>
       </c>
-      <c r="D7" s="28" t="str">
+      <c r="D7" s="27" t="str">
         <f>LOWER(B7)</f>
         <v>maça</v>
       </c>
@@ -3475,11 +3630,11 @@
       <c r="B8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="23" t="str">
+      <c r="C8" s="22" t="str">
         <f>IF(LOWER(B8)="maça","É maça","Outra Fruta")</f>
         <v>É maça</v>
       </c>
-      <c r="D8" s="28" t="str">
+      <c r="D8" s="27" t="str">
         <f t="shared" ref="D8:D12" si="0">LOWER(B8)</f>
         <v>maça</v>
       </c>
@@ -3488,11 +3643,11 @@
       <c r="B9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="23" t="str">
+      <c r="C9" s="22" t="str">
         <f>IF(LOWER(B9)="maça","É maça","Outra Fruta")</f>
         <v>É maça</v>
       </c>
-      <c r="D9" s="28" t="str">
+      <c r="D9" s="27" t="str">
         <f t="shared" si="0"/>
         <v>maça</v>
       </c>
@@ -3501,11 +3656,11 @@
       <c r="B10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="23" t="str">
+      <c r="C10" s="22" t="str">
         <f t="shared" ref="C10:C12" si="1">IF(LOWER(B10)="maça","É maça","Outra Fruta")</f>
         <v>Outra Fruta</v>
       </c>
-      <c r="D10" s="28" t="str">
+      <c r="D10" s="27" t="str">
         <f t="shared" si="0"/>
         <v>.</v>
       </c>
@@ -3514,11 +3669,11 @@
       <c r="B11" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="23" t="str">
+      <c r="C11" s="22" t="str">
         <f>IF(LOWER(B11)="maça","É maça","Outra Fruta")</f>
         <v>É maça</v>
       </c>
-      <c r="D11" s="28" t="str">
+      <c r="D11" s="27" t="str">
         <f>LOWER(B11)</f>
         <v>maça</v>
       </c>
@@ -3527,11 +3682,11 @@
       <c r="B12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="23" t="str">
+      <c r="C12" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Outra Fruta</v>
       </c>
-      <c r="D12" s="28" t="str">
+      <c r="D12" s="27" t="str">
         <f t="shared" si="0"/>
         <v>c</v>
       </c>
@@ -3566,15 +3721,15 @@
       <c r="B21" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="23" t="str">
+      <c r="C21" s="22" t="str">
         <f>IF(ISNUMBER(SEARCH("maça",LOWER(B21))),"Tem Maça","Outra Fruta")</f>
         <v>Tem Maça</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="27">
         <f>SEARCH("maça",LOWER(B21))</f>
         <v>1</v>
       </c>
-      <c r="E21" s="28" t="b">
+      <c r="E21" s="27" t="b">
         <f>ISNUMBER(SEARCH("maça",LOWER(B21)))</f>
         <v>1</v>
       </c>
@@ -3583,15 +3738,15 @@
       <c r="B22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="23" t="str">
+      <c r="C22" s="22" t="str">
         <f t="shared" ref="C22:C27" si="2">IF(ISNUMBER(SEARCH("maça",LOWER(B22))),"Tem Maça","Outra Fruta")</f>
         <v>Tem Maça</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="27">
         <f>SEARCH("maça",LOWER(B22))</f>
         <v>22</v>
       </c>
-      <c r="E22" s="28" t="b">
+      <c r="E22" s="27" t="b">
         <f t="shared" ref="E22:E27" si="3">ISNUMBER(SEARCH("maça",LOWER(B22)))</f>
         <v>1</v>
       </c>
@@ -3600,15 +3755,15 @@
       <c r="B23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="23" t="str">
+      <c r="C23" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Outra Fruta</v>
       </c>
-      <c r="D23" s="28" t="e">
+      <c r="D23" s="27" t="e">
         <f t="shared" ref="D23:D27" si="4">SEARCH("maça",LOWER(B23))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E23" s="28" t="b">
+      <c r="E23" s="27" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3617,15 +3772,15 @@
       <c r="B24" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="23" t="str">
+      <c r="C24" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Tem Maça</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="27">
         <f>SEARCH("maça",LOWER(B24))</f>
         <v>15</v>
       </c>
-      <c r="E24" s="28" t="b">
+      <c r="E24" s="27" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -3634,15 +3789,15 @@
       <c r="B25" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="23" t="str">
+      <c r="C25" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Outra Fruta</v>
       </c>
-      <c r="D25" s="28" t="e">
+      <c r="D25" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E25" s="28" t="b">
+      <c r="E25" s="27" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3651,15 +3806,15 @@
       <c r="B26" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="23" t="str">
+      <c r="C26" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Tem Maça</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="27">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="E26" s="28" t="b">
+      <c r="E26" s="27" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -3668,15 +3823,15 @@
       <c r="B27" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="23" t="str">
+      <c r="C27" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Outra Fruta</v>
       </c>
-      <c r="D27" s="28" t="e">
+      <c r="D27" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E27" s="28" t="b">
+      <c r="E27" s="27" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3709,11 +3864,11 @@
       <c r="B35" s="16">
         <v>44957</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="22">
         <f>WEEKDAY(B35)</f>
         <v>3</v>
       </c>
-      <c r="D35" s="23" t="str">
+      <c r="D35" s="22" t="str">
         <f>IF(C35=1,"Domingo não pode vender",
 IF(C35=2,"Segunda-feira, boas vendas!",
 IF(C35=3,"Terça-feira, boas vendas!",
@@ -3723,7 +3878,7 @@
 IF(C35=7,"Sábado não pode vender","-")))))))</f>
         <v>Terça-feira, boas vendas!</v>
       </c>
-      <c r="E35" s="23" t="str">
+      <c r="E35" s="22" t="str">
         <f>IF(WEEKDAY(B35)=1,"Domingo não pode vender",
 IF(WEEKDAY(B35)=2,"Segunda-feira, boas vendas!",
 IF(WEEKDAY(B35)=3,"Terça-feira, boas vendas!",
@@ -3738,11 +3893,11 @@
       <c r="B36" s="16">
         <v>44940</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="22">
         <f t="shared" ref="C36:C41" si="5">WEEKDAY(B36)</f>
         <v>7</v>
       </c>
-      <c r="D36" s="23" t="str">
+      <c r="D36" s="22" t="str">
         <f t="shared" ref="D36:D41" si="6">IF(C36=1,"Domingo não pode vender",
 IF(C36=2,"Segunda-feira, boas vendas!",
 IF(C36=3,"Terça-feira, boas vendas!",
@@ -3752,7 +3907,7 @@
 IF(C36=7,"Sábado não pode vender","-")))))))</f>
         <v>Sábado não pode vender</v>
       </c>
-      <c r="E36" s="23" t="str">
+      <c r="E36" s="22" t="str">
         <f t="shared" ref="E36:E41" si="7">IF(WEEKDAY(B36)=1,"Domingo não pode vender",
 IF(WEEKDAY(B36)=2,"Segunda-feira, boas vendas!",
 IF(WEEKDAY(B36)=3,"Terça-feira, boas vendas!",
@@ -3767,11 +3922,11 @@
       <c r="B37" s="16">
         <v>44930</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="22">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="D37" s="23" t="str">
+      <c r="D37" s="22" t="str">
         <f>IF(C37=1,"Domingo não pode vender",
 IF(C37=2,"Segunda-feira, boas vendas!",
 IF(C37=3,"Terça-feira, boas vendas!",
@@ -3781,7 +3936,7 @@
 IF(C37=7,"Sábado não pode vender","-")))))))</f>
         <v>Quarta-feira, boas vendas!</v>
       </c>
-      <c r="E37" s="23" t="str">
+      <c r="E37" s="22" t="str">
         <f t="shared" si="7"/>
         <v>Quarta-feira, boas vendas!</v>
       </c>
@@ -3790,15 +3945,15 @@
       <c r="B38" s="16">
         <v>44944</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="22">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="D38" s="23" t="str">
+      <c r="D38" s="22" t="str">
         <f t="shared" si="6"/>
         <v>Quarta-feira, boas vendas!</v>
       </c>
-      <c r="E38" s="23" t="str">
+      <c r="E38" s="22" t="str">
         <f t="shared" si="7"/>
         <v>Quarta-feira, boas vendas!</v>
       </c>
@@ -3807,15 +3962,15 @@
       <c r="B39" s="16">
         <v>44935</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C39" s="22">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="D39" s="23" t="str">
+      <c r="D39" s="22" t="str">
         <f t="shared" si="6"/>
         <v>Segunda-feira, boas vendas!</v>
       </c>
-      <c r="E39" s="23" t="str">
+      <c r="E39" s="22" t="str">
         <f>IF(WEEKDAY(B39)=1,"Domingo não pode vender",
 IF(WEEKDAY(B39)=2,"Segunda-feira, boas vendas!",
 IF(WEEKDAY(B39)=3,"Terça-feira, boas vendas!",
@@ -3830,15 +3985,15 @@
       <c r="B40" s="16">
         <v>44946</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="22">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="D40" s="23" t="str">
+      <c r="D40" s="22" t="str">
         <f t="shared" si="6"/>
         <v>Sexta-feira, boas vendas!</v>
       </c>
-      <c r="E40" s="23" t="str">
+      <c r="E40" s="22" t="str">
         <f t="shared" si="7"/>
         <v>Sexta-feira, boas vendas!</v>
       </c>
@@ -3847,15 +4002,15 @@
       <c r="B41" s="16">
         <v>44927</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="22">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="D41" s="23" t="str">
+      <c r="D41" s="22" t="str">
         <f t="shared" si="6"/>
         <v>Domingo não pode vender</v>
       </c>
-      <c r="E41" s="23" t="str">
+      <c r="E41" s="22" t="str">
         <f t="shared" si="7"/>
         <v>Domingo não pode vender</v>
       </c>
@@ -3927,7 +4082,7 @@
       <c r="C6" s="17">
         <v>1</v>
       </c>
-      <c r="D6" s="23" t="str">
+      <c r="D6" s="22" t="str">
         <f>IF(AND(B6=$F$6,C6=$G$6),"Comprar Banana dia 5","Não comprar")</f>
         <v>Não comprar</v>
       </c>
@@ -3945,7 +4100,7 @@
       <c r="C7" s="17">
         <v>10</v>
       </c>
-      <c r="D7" s="23" t="str">
+      <c r="D7" s="22" t="str">
         <f t="shared" ref="D7:D11" si="0">IF(AND(B7=$F$6,C7=$G$6),"Comprar Banana dia 5","Não comprar")</f>
         <v>Não comprar</v>
       </c>
@@ -3957,7 +4112,7 @@
       <c r="C8" s="17">
         <v>15</v>
       </c>
-      <c r="D8" s="23" t="str">
+      <c r="D8" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Não comprar</v>
       </c>
@@ -3969,7 +4124,7 @@
       <c r="C9" s="17">
         <v>9</v>
       </c>
-      <c r="D9" s="23" t="str">
+      <c r="D9" s="22" t="str">
         <f>IF(AND(B9=$F$6,C9=$G$6),"Comprar Banana dia 5","Não comprar")</f>
         <v>Não comprar</v>
       </c>
@@ -3981,7 +4136,7 @@
       <c r="C10" s="17">
         <v>5</v>
       </c>
-      <c r="D10" s="23" t="str">
+      <c r="D10" s="22" t="str">
         <f>IF(AND(B10=$F$6,C10=$G$6),"Comprar Banana dia 5","Não comprar")</f>
         <v>Comprar Banana dia 5</v>
       </c>
@@ -3993,7 +4148,7 @@
       <c r="C11" s="17">
         <v>9</v>
       </c>
-      <c r="D11" s="23" t="str">
+      <c r="D11" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Não comprar</v>
       </c>
@@ -4034,7 +4189,7 @@
       <c r="C19" s="17">
         <v>6</v>
       </c>
-      <c r="D19" s="23" t="str">
+      <c r="D19" s="22" t="str">
         <f>IF(AND(B19=$F$19,C19=$G$19),"Comprar Babana dia 5",
 IF(AND(B19=$F$20,C19=$G$20),"Comprar Maça dia 6","Não Comprar"))</f>
         <v>Comprar Maça dia 6</v>
@@ -4053,7 +4208,7 @@
       <c r="C20" s="17">
         <v>10</v>
       </c>
-      <c r="D20" s="23" t="str">
+      <c r="D20" s="22" t="str">
         <f t="shared" ref="D20:D24" si="1">IF(AND(B20=$F$19,C20=$G$19),"Comprar Babana dia 5",
 IF(AND(B20=$F$20,C20=$G$20),"Comprar Maça dia 6","Não Comprar"))</f>
         <v>Não Comprar</v>
@@ -4072,7 +4227,7 @@
       <c r="C21" s="17">
         <v>4</v>
       </c>
-      <c r="D21" s="23" t="str">
+      <c r="D21" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Não Comprar</v>
       </c>
@@ -4084,7 +4239,7 @@
       <c r="C22" s="17">
         <v>9</v>
       </c>
-      <c r="D22" s="23" t="str">
+      <c r="D22" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Não Comprar</v>
       </c>
@@ -4096,7 +4251,7 @@
       <c r="C23" s="17">
         <v>5</v>
       </c>
-      <c r="D23" s="23" t="str">
+      <c r="D23" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Comprar Babana dia 5</v>
       </c>
@@ -4108,7 +4263,7 @@
       <c r="C24" s="17">
         <v>9</v>
       </c>
-      <c r="D24" s="23" t="str">
+      <c r="D24" s="22" t="str">
         <f t="shared" si="1"/>
         <v>Não Comprar</v>
       </c>
@@ -4161,11 +4316,11 @@
       <c r="C35" s="19">
         <v>44936</v>
       </c>
-      <c r="D35" s="23" t="str">
+      <c r="D35" s="22" t="str">
         <f>IF(AND(C35&gt;=$G$34,C35&lt;=$G$35),"Está","Não Está")</f>
         <v>Não Está</v>
       </c>
-      <c r="E35" s="25" t="str">
+      <c r="E35" s="24" t="str">
         <f>IF(AND(B35="Banana",C35&gt;=$G$34,C35&lt;=$G$35),"Comprar Banana entre 16/01 e 28/01","Não comprar")</f>
         <v>Não comprar</v>
       </c>
@@ -4181,11 +4336,11 @@
       <c r="C36" s="19">
         <v>44942</v>
       </c>
-      <c r="D36" s="23" t="str">
+      <c r="D36" s="22" t="str">
         <f t="shared" ref="D36:D40" si="2">IF(AND(C36&gt;=$G$34,C36&lt;=$G$35),"Está","Não Está")</f>
         <v>Está</v>
       </c>
-      <c r="E36" s="25" t="str">
+      <c r="E36" s="24" t="str">
         <f t="shared" ref="E36:E40" si="3">IF(AND(B36="Banana",C36&gt;=$G$34,C36&lt;=$G$35),"Comprar Banana entre 16/01 e 28/01","Não comprar")</f>
         <v>Comprar Banana entre 16/01 e 28/01</v>
       </c>
@@ -4199,11 +4354,11 @@
       <c r="C37" s="19">
         <v>44930</v>
       </c>
-      <c r="D37" s="23" t="str">
+      <c r="D37" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Não Está</v>
       </c>
-      <c r="E37" s="25" t="str">
+      <c r="E37" s="24" t="str">
         <f t="shared" si="3"/>
         <v>Não comprar</v>
       </c>
@@ -4217,11 +4372,11 @@
       <c r="C38" s="19">
         <v>44946</v>
       </c>
-      <c r="D38" s="23" t="str">
+      <c r="D38" s="22" t="str">
         <f>IF(AND(C38&gt;=$G$34,C38&lt;=$G$35),"Está","Não Está")</f>
         <v>Está</v>
       </c>
-      <c r="E38" s="25" t="str">
+      <c r="E38" s="24" t="str">
         <f t="shared" si="3"/>
         <v>Não comprar</v>
       </c>
@@ -4235,11 +4390,11 @@
       <c r="C39" s="19">
         <v>44929</v>
       </c>
-      <c r="D39" s="23" t="str">
+      <c r="D39" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Não Está</v>
       </c>
-      <c r="E39" s="25" t="str">
+      <c r="E39" s="24" t="str">
         <f t="shared" si="3"/>
         <v>Não comprar</v>
       </c>
@@ -4253,11 +4408,11 @@
       <c r="C40" s="19">
         <v>44949</v>
       </c>
-      <c r="D40" s="23" t="str">
+      <c r="D40" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Está</v>
       </c>
-      <c r="E40" s="25" t="str">
+      <c r="E40" s="24" t="str">
         <f t="shared" si="3"/>
         <v>Comprar Banana entre 16/01 e 28/01</v>
       </c>
@@ -4348,19 +4503,19 @@
       <c r="C56" s="7">
         <v>9</v>
       </c>
-      <c r="D56" s="23" t="str">
+      <c r="D56" s="22" t="str">
         <f>IF(AND(C56&gt;=6,C56&lt;=10),"Aprovado(a)","-")</f>
         <v>Aprovado(a)</v>
       </c>
-      <c r="E56" s="23" t="str">
+      <c r="E56" s="22" t="str">
         <f>IF(AND(C56&gt;=2,C56&lt;6),"Recuperação","-")</f>
         <v>-</v>
       </c>
-      <c r="F56" s="23" t="str">
+      <c r="F56" s="22" t="str">
         <f>IF(C56&lt;2,"Reprovado(a)","-")</f>
         <v>-</v>
       </c>
-      <c r="G56" s="23" t="str">
+      <c r="G56" s="22" t="str">
         <f>IF(AND(C56&gt;=6,C56&lt;=10),"Aprovado(a)",
 IF(AND(C56&gt;=2,C56&lt;6),"Recuperação","Reprovado(a)"))</f>
         <v>Aprovado(a)</v>
@@ -4373,19 +4528,19 @@
       <c r="C57" s="7">
         <v>5</v>
       </c>
-      <c r="D57" s="23" t="str">
+      <c r="D57" s="22" t="str">
         <f>IF(AND(C57&gt;=6,C57&lt;=10),"Aprovado(a)","-")</f>
         <v>-</v>
       </c>
-      <c r="E57" s="23" t="str">
+      <c r="E57" s="22" t="str">
         <f>IF(AND(C57&gt;=2,C57&lt;6),"Recuperação","-")</f>
         <v>Recuperação</v>
       </c>
-      <c r="F57" s="23" t="str">
+      <c r="F57" s="22" t="str">
         <f t="shared" ref="F57:F61" si="4">IF(C57&lt;2,"Reprovado(a)","-")</f>
         <v>-</v>
       </c>
-      <c r="G57" s="23" t="str">
+      <c r="G57" s="22" t="str">
         <f t="shared" ref="G57:G61" si="5">IF(AND(C57&gt;=6,C57&lt;=10),"Aprovado(a)",
 IF(AND(C57&gt;=2,C57&lt;6),"Recuperação","Reprovado(a)"))</f>
         <v>Recuperação</v>
@@ -4398,19 +4553,19 @@
       <c r="C58" s="7">
         <v>5</v>
       </c>
-      <c r="D58" s="23" t="str">
+      <c r="D58" s="22" t="str">
         <f t="shared" ref="D58:D61" si="6">IF(AND(C58&gt;=6,C58&lt;=10),"Aprovado(a)","-")</f>
         <v>-</v>
       </c>
-      <c r="E58" s="23" t="str">
+      <c r="E58" s="22" t="str">
         <f t="shared" ref="E58:E61" si="7">IF(AND(C58&gt;=2,C58&lt;6),"Recuperação","-")</f>
         <v>Recuperação</v>
       </c>
-      <c r="F58" s="23" t="str">
+      <c r="F58" s="22" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="G58" s="23" t="str">
+      <c r="G58" s="22" t="str">
         <f t="shared" si="5"/>
         <v>Recuperação</v>
       </c>
@@ -4422,19 +4577,19 @@
       <c r="C59" s="7">
         <v>7</v>
       </c>
-      <c r="D59" s="23" t="str">
+      <c r="D59" s="22" t="str">
         <f t="shared" si="6"/>
         <v>Aprovado(a)</v>
       </c>
-      <c r="E59" s="23" t="str">
+      <c r="E59" s="22" t="str">
         <f>IF(AND(C59&gt;=2,C59&lt;6),"Recuperação","-")</f>
         <v>-</v>
       </c>
-      <c r="F59" s="23" t="str">
+      <c r="F59" s="22" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="G59" s="23" t="str">
+      <c r="G59" s="22" t="str">
         <f t="shared" si="5"/>
         <v>Aprovado(a)</v>
       </c>
@@ -4446,19 +4601,19 @@
       <c r="C60" s="7">
         <v>1.5</v>
       </c>
-      <c r="D60" s="23" t="str">
+      <c r="D60" s="22" t="str">
         <f t="shared" si="6"/>
         <v>-</v>
       </c>
-      <c r="E60" s="23" t="str">
+      <c r="E60" s="22" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="F60" s="23" t="str">
+      <c r="F60" s="22" t="str">
         <f t="shared" si="4"/>
         <v>Reprovado(a)</v>
       </c>
-      <c r="G60" s="23" t="str">
+      <c r="G60" s="22" t="str">
         <f t="shared" si="5"/>
         <v>Reprovado(a)</v>
       </c>
@@ -4470,19 +4625,19 @@
       <c r="C61" s="7">
         <v>9</v>
       </c>
-      <c r="D61" s="23" t="str">
+      <c r="D61" s="22" t="str">
         <f t="shared" si="6"/>
         <v>Aprovado(a)</v>
       </c>
-      <c r="E61" s="23" t="str">
+      <c r="E61" s="22" t="str">
         <f t="shared" si="7"/>
         <v>-</v>
       </c>
-      <c r="F61" s="23" t="str">
+      <c r="F61" s="22" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="G61" s="23" t="str">
+      <c r="G61" s="22" t="str">
         <f t="shared" si="5"/>
         <v>Aprovado(a)</v>
       </c>
@@ -4507,14 +4662,14 @@
       <c r="F67"/>
     </row>
     <row r="68" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D68"/>
       <c r="F68"/>
     </row>
     <row r="69" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="21" t="s">
         <v>108</v>
       </c>
       <c r="D69"/>
@@ -4544,15 +4699,15 @@
       <c r="B72" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C72" s="23" t="str">
+      <c r="C72" s="22" t="str">
         <f>LOWER(LEFT(B72,2))</f>
         <v>br</v>
       </c>
-      <c r="D72" s="23" t="str">
+      <c r="D72" s="22" t="str">
         <f>RIGHT(LOWER(B72),4)</f>
         <v>maça</v>
       </c>
-      <c r="E72" s="23" t="str">
+      <c r="E72" s="22" t="str">
         <f>IF(AND(LOWER(LEFT(B72,2))="br",
 RIGHT(LOWER(B72),4)="maça"),"Maça do Brasil","-")</f>
         <v>Maça do Brasil</v>
@@ -4563,15 +4718,15 @@
       <c r="B73" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C73" s="23" t="str">
+      <c r="C73" s="22" t="str">
         <f t="shared" ref="C73:C77" si="8">LOWER(LEFT(B73,2))</f>
         <v>br</v>
       </c>
-      <c r="D73" s="23" t="str">
+      <c r="D73" s="22" t="str">
         <f t="shared" ref="D73:D77" si="9">RIGHT(LOWER(B73),4)</f>
         <v>maça</v>
       </c>
-      <c r="E73" s="23" t="str">
+      <c r="E73" s="22" t="str">
         <f t="shared" ref="E73:E77" si="10">IF(AND(LOWER(LEFT(B73,2))="br",
 RIGHT(LOWER(B73),4)="maça"),"Maça do Brasil","-")</f>
         <v>Maça do Brasil</v>
@@ -4582,15 +4737,15 @@
       <c r="B74" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C74" s="23" t="str">
+      <c r="C74" s="22" t="str">
         <f t="shared" si="8"/>
         <v>ar</v>
       </c>
-      <c r="D74" s="23" t="str">
+      <c r="D74" s="22" t="str">
         <f t="shared" si="9"/>
         <v>maça</v>
       </c>
-      <c r="E74" s="23" t="str">
+      <c r="E74" s="22" t="str">
         <f t="shared" si="10"/>
         <v>-</v>
       </c>
@@ -4600,15 +4755,15 @@
       <c r="B75" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C75" s="23" t="str">
+      <c r="C75" s="22" t="str">
         <f t="shared" si="8"/>
         <v>br</v>
       </c>
-      <c r="D75" s="23" t="str">
+      <c r="D75" s="22" t="str">
         <f t="shared" si="9"/>
         <v>br-.</v>
       </c>
-      <c r="E75" s="23" t="str">
+      <c r="E75" s="22" t="str">
         <f t="shared" si="10"/>
         <v>-</v>
       </c>
@@ -4618,15 +4773,15 @@
       <c r="B76" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="23" t="str">
+      <c r="C76" s="22" t="str">
         <f t="shared" si="8"/>
         <v>cl</v>
       </c>
-      <c r="D76" s="23" t="str">
+      <c r="D76" s="22" t="str">
         <f t="shared" si="9"/>
         <v>cl-w</v>
       </c>
-      <c r="E76" s="23" t="str">
+      <c r="E76" s="22" t="str">
         <f t="shared" si="10"/>
         <v>-</v>
       </c>
@@ -4636,15 +4791,15 @@
       <c r="B77" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C77" s="23" t="str">
+      <c r="C77" s="22" t="str">
         <f t="shared" si="8"/>
         <v>br</v>
       </c>
-      <c r="D77" s="23" t="str">
+      <c r="D77" s="22" t="str">
         <f t="shared" si="9"/>
         <v>maça</v>
       </c>
-      <c r="E77" s="23" t="str">
+      <c r="E77" s="22" t="str">
         <f t="shared" si="10"/>
         <v>Maça do Brasil</v>
       </c>
@@ -4716,11 +4871,11 @@
       <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="23" t="str">
+      <c r="C8" s="22" t="str">
         <f>IF(OR(B8="A",B8="B",B8="C"),"Letra A, B ou C","Outra Letra")</f>
         <v>Letra A, B ou C</v>
       </c>
-      <c r="D8" s="23" t="str">
+      <c r="D8" s="22" t="str">
         <f>IF(SUM(IF(B8={"A";"B";"C"},1,0))&gt;=1,"Letra A, B ou C","Outra Letra")</f>
         <v>Letra A, B ou C</v>
       </c>
@@ -4730,11 +4885,11 @@
       <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="23" t="str">
+      <c r="C9" s="22" t="str">
         <f t="shared" ref="C9:C13" si="0">IF(OR(B9="A",B9="B",B9="C"),"Letra A, B ou C","Outra Letra")</f>
         <v>Letra A, B ou C</v>
       </c>
-      <c r="D9" s="23" t="str">
+      <c r="D9" s="22" t="str">
         <f>IF(SUM(IF(B9={"A";"B";"C"},1,0))&gt;=1,"Letra A, B ou C","Outra Letra")</f>
         <v>Letra A, B ou C</v>
       </c>
@@ -4748,11 +4903,11 @@
       <c r="B10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="23" t="str">
+      <c r="C10" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Outra Letra</v>
       </c>
-      <c r="D10" s="23" t="str">
+      <c r="D10" s="22" t="str">
         <f>IF(SUM(IF(B10={"A";"B";"C"},1,0))&gt;=1,"Letra A, B ou C","Outra Letra")</f>
         <v>Outra Letra</v>
       </c>
@@ -4764,11 +4919,11 @@
       <c r="B11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="23" t="str">
+      <c r="C11" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Outra Letra</v>
       </c>
-      <c r="D11" s="23" t="str">
+      <c r="D11" s="22" t="str">
         <f>IF(SUM(IF(B11={"A";"B";"C"},1,0))&gt;=1,"Letra A, B ou C","Outra Letra")</f>
         <v>Outra Letra</v>
       </c>
@@ -4777,11 +4932,11 @@
       <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="23" t="str">
+      <c r="C12" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Letra A, B ou C</v>
       </c>
-      <c r="D12" s="23" t="str">
+      <c r="D12" s="22" t="str">
         <f>IF(SUM(IF(B12={"A";"B";"C"},1,0))&gt;=1,"Letra A, B ou C","Outra Letra")</f>
         <v>Letra A, B ou C</v>
       </c>
@@ -4790,11 +4945,11 @@
       <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="23" t="str">
+      <c r="C13" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Letra A, B ou C</v>
       </c>
-      <c r="D13" s="23" t="str">
+      <c r="D13" s="22" t="str">
         <f>IF(SUM(IF(B13={"A";"B";"C"},1,0))&gt;=1,"Letra A, B ou C","Outra Letra")</f>
         <v>Letra A, B ou C</v>
       </c>
@@ -4840,7 +4995,7 @@
       <c r="B24" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="23" t="str">
+      <c r="C24" s="22" t="str">
         <f>IF(OR(LOWER(B24)="azul",
 LOWER(B24)="verde"),"A cor é Azul ou Verde","-")</f>
         <v>A cor é Azul ou Verde</v>
@@ -4850,7 +5005,7 @@
       <c r="B25" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="23" t="str">
+      <c r="C25" s="22" t="str">
         <f t="shared" ref="C25:C28" si="1">IF(OR(LOWER(B25)="azul",
 LOWER(B25)="verde"),"A cor é Azul ou Verde","-")</f>
         <v>-</v>
@@ -4860,7 +5015,7 @@
       <c r="B26" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="23" t="str">
+      <c r="C26" s="22" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -4869,7 +5024,7 @@
       <c r="B27" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="23" t="str">
+      <c r="C27" s="22" t="str">
         <f t="shared" si="1"/>
         <v>A cor é Azul ou Verde</v>
       </c>
@@ -4878,7 +5033,7 @@
       <c r="B28" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="23" t="str">
+      <c r="C28" s="22" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -4918,7 +5073,7 @@
       <c r="B39" s="7">
         <v>5</v>
       </c>
-      <c r="C39" s="23" t="str">
+      <c r="C39" s="22" t="str">
         <f>IF(OR(B39&lt;10,B39&gt;50),"Número menor que 10 ou maior que 50","-")</f>
         <v>Número menor que 10 ou maior que 50</v>
       </c>
@@ -4927,7 +5082,7 @@
       <c r="B40" s="7">
         <v>79</v>
       </c>
-      <c r="C40" s="23" t="str">
+      <c r="C40" s="22" t="str">
         <f t="shared" ref="C40:C43" si="2">IF(OR(B40&lt;10,B40&gt;50),"Número menor que 10 ou maior que 50","-")</f>
         <v>Número menor que 10 ou maior que 50</v>
       </c>
@@ -4936,7 +5091,7 @@
       <c r="B41" s="7">
         <v>45</v>
       </c>
-      <c r="C41" s="23" t="str">
+      <c r="C41" s="22" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
@@ -4945,7 +5100,7 @@
       <c r="B42" s="7">
         <v>98</v>
       </c>
-      <c r="C42" s="23" t="str">
+      <c r="C42" s="22" t="str">
         <f t="shared" si="2"/>
         <v>Número menor que 10 ou maior que 50</v>
       </c>
@@ -4954,7 +5109,7 @@
       <c r="B43" s="7">
         <v>31</v>
       </c>
-      <c r="C43" s="23" t="str">
+      <c r="C43" s="22" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
@@ -4985,16 +5140,16 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:20" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="20" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5005,28 +5160,28 @@
       <c r="B6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <f t="array" ref="D6">MIN(IF(B7:B13&gt;40,B7:B13))</f>
         <v>43</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="22">
         <f t="array" ref="I6">MAX(IF(G7:G13&gt;40,G7:G13))</f>
         <v>900</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="22">
         <f t="array" ref="N6">SUM(IF(L7:L13=32,1,0))</f>
         <v>2</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="T6" s="23">
+      <c r="T6" s="22">
         <f t="array" ref="T6">SUM(IF(R7:R13&lt;=20,R7:R13,0))</f>
         <v>28</v>
       </c>
@@ -5130,42 +5285,42 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="23.15" x14ac:dyDescent="0.6">
-      <c r="B19" s="26"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="5"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="2:5" ht="23.15" x14ac:dyDescent="0.6">
-      <c r="B20" s="26"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="5"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="2:5" ht="23.15" x14ac:dyDescent="0.6">
-      <c r="B21" s="26"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="5"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="2:5" ht="23.15" x14ac:dyDescent="0.6">
-      <c r="B22" s="26"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="5"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="2:5" ht="23.15" x14ac:dyDescent="0.6">
-      <c r="B23" s="26"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="5"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="2:5" ht="23.15" x14ac:dyDescent="0.6">
-      <c r="B24" s="26"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="5"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="2:5" ht="23.15" x14ac:dyDescent="0.6">
-      <c r="B25" s="26"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="5"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="2:5" ht="23.15" x14ac:dyDescent="0.6">
-      <c r="B26" s="26"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="5"/>
       <c r="E26" s="1"/>
     </row>
@@ -5375,7 +5530,7 @@
         <f>IF($E$33&gt;B33,"Vencido","No prazo")</f>
         <v>No prazo</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="29">
         <v>45066</v>
       </c>
     </row>
@@ -5396,7 +5551,7 @@
         <f t="shared" si="2"/>
         <v>Vencido</v>
       </c>
-      <c r="E35" s="29"/>
+      <c r="E35" s="28"/>
     </row>
     <row r="36" spans="2:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B36" s="16">

--- a/Excel/Funcao_SE.xlsx
+++ b/Excel/Funcao_SE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5B4705-A5B6-4D9A-B89E-4C3EE39E76C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F1DEFC-B27E-4359-95C0-5F3FCDD4E483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="902" firstSheet="6" activeTab="11" xr2:uid="{A1D71C93-AD03-4E23-96D0-6B5E4DB0459A}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="140">
   <si>
     <t>Nome</t>
   </si>
@@ -379,9 +379,6 @@
     <t>de acordo com as informações da tabela abaixo:</t>
   </si>
   <si>
-    <t>5) Crie uma um fórmula com a função Se com E que imprima "Maça do Brasil" quando:</t>
-  </si>
-  <si>
     <t>- Na coluna B as duas primeiras letras sejam igual a br</t>
   </si>
   <si>
@@ -473,6 +470,15 @@
   </si>
   <si>
     <t>énúm é um booleano - True or False</t>
+  </si>
+  <si>
+    <t>Utilizado a função esq</t>
+  </si>
+  <si>
+    <t>utilizado a função direita</t>
+  </si>
+  <si>
+    <t>utilizado a função ext.texto</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1074,7 @@
     </row>
     <row r="4" spans="2:4" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B4" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="23.15" x14ac:dyDescent="0.6">
@@ -1164,7 +1170,7 @@
     </row>
     <row r="17" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B17" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
@@ -1223,7 +1229,7 @@
     </row>
     <row r="29" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B29" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="26.15" x14ac:dyDescent="0.7">
@@ -1423,7 +1429,7 @@
     </row>
     <row r="19" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B19" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
@@ -1678,7 +1684,7 @@
     </row>
     <row r="4" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B4" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
@@ -1694,7 +1700,7 @@
     </row>
     <row r="7" spans="2:3" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B7" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="8" t="str">
         <f>IF(LOWER(B7)="maçã","É maçã","Outra Fruta")</f>
@@ -1703,7 +1709,7 @@
     </row>
     <row r="8" spans="2:3" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B8" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="8" t="str">
         <f t="shared" ref="C8:C12" si="0">IF(LOWER(B8)="maçã","É maçã","Outra Fruta")</f>
@@ -1712,7 +1718,7 @@
     </row>
     <row r="9" spans="2:3" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B9" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1756,7 +1762,7 @@
     </row>
     <row r="17" spans="2:4" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B17" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="23.15" x14ac:dyDescent="0.6">
@@ -1772,7 +1778,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="26.15" x14ac:dyDescent="0.7">
@@ -1868,7 +1874,7 @@
     </row>
     <row r="30" spans="2:4" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B30" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="23.15" x14ac:dyDescent="0.6">
@@ -2056,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D736C7B-5639-46E7-A045-1829B91CFDE5}">
   <dimension ref="B2:J79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2618,7 +2624,7 @@
         <v>Aprovado(a)</v>
       </c>
       <c r="E59" s="8" t="str">
-        <f t="shared" ref="E57:E61" si="7">IF(AND(C59&gt;=2,C59&lt;6),"Recuperação","-")</f>
+        <f t="shared" ref="E59:E61" si="7">IF(AND(C59&gt;=2,C59&lt;6),"Recuperação","-")</f>
         <v>-</v>
       </c>
       <c r="F59" s="8" t="str">
@@ -2692,21 +2698,21 @@
     </row>
     <row r="67" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B67" s="10" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="D67"/>
       <c r="F67"/>
     </row>
     <row r="68" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B68" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D68"/>
       <c r="F68"/>
     </row>
     <row r="69" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B69" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D69"/>
       <c r="F69"/>
@@ -2735,54 +2741,111 @@
       <c r="B72" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
+      <c r="C72" s="8" t="str">
+        <f>LOWER(LEFT(B72,2))</f>
+        <v>br</v>
+      </c>
+      <c r="D72" s="8" t="str">
+        <f>LOWER(RIGHT(B72,4))</f>
+        <v>maça</v>
+      </c>
+      <c r="E72" s="8" t="str">
+        <f>IF(AND(LOWER(MID(B72,1,2))="br",
+LOWER(MID(B72,4,4))="maça"),"Maçã do Brasil","-")</f>
+        <v>Maçã do Brasil</v>
+      </c>
       <c r="F72"/>
     </row>
     <row r="73" spans="2:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B73" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
+      <c r="C73" s="8" t="str">
+        <f t="shared" ref="C73:C77" si="8">LOWER(LEFT(B73,2))</f>
+        <v>br</v>
+      </c>
+      <c r="D73" s="8" t="str">
+        <f t="shared" ref="D73:D77" si="9">LOWER(RIGHT(B73,4))</f>
+        <v>maça</v>
+      </c>
+      <c r="E73" s="8" t="str">
+        <f>IF(AND(LOWER(MID(B73,1,2))="br",
+LOWER(MID(B73,4,4))="maça"),"Maçã do Brasil","-")</f>
+        <v>Maçã do Brasil</v>
+      </c>
       <c r="F73"/>
     </row>
     <row r="74" spans="2:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B74" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
+      <c r="C74" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>ar</v>
+      </c>
+      <c r="D74" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>maça</v>
+      </c>
+      <c r="E74" s="8" t="str">
+        <f t="shared" ref="E74:E77" si="10">IF(AND(LOWER(MID(B74,1,2))="br",
+LOWER(MID(B74,4,4))="maça"),"Maçã do Brasil","-")</f>
+        <v>-</v>
+      </c>
       <c r="F74"/>
     </row>
     <row r="75" spans="2:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B75" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
+      <c r="C75" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>br</v>
+      </c>
+      <c r="D75" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>br-.</v>
+      </c>
+      <c r="E75" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
       <c r="F75"/>
     </row>
     <row r="76" spans="2:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B76" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
+      <c r="C76" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>cl</v>
+      </c>
+      <c r="D76" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>cl-w</v>
+      </c>
+      <c r="E76" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>-</v>
+      </c>
       <c r="F76"/>
     </row>
     <row r="77" spans="2:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B77" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
+      <c r="C77" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>br</v>
+      </c>
+      <c r="D77" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v>maça</v>
+      </c>
+      <c r="E77" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>Maçã do Brasil</v>
+      </c>
       <c r="F77"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.4">
@@ -2790,7 +2853,15 @@
       <c r="F78"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="D79"/>
+      <c r="C79" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E79" t="s">
+        <v>139</v>
+      </c>
       <c r="F79"/>
     </row>
   </sheetData>
@@ -2820,13 +2891,13 @@
   <sheetData>
     <row r="3" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B3" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F3"/>
     </row>
     <row r="4" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B4" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F4"/>
     </row>
@@ -2843,7 +2914,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F7"/>
     </row>
@@ -2911,19 +2982,19 @@
     </row>
     <row r="18" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B18" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F18"/>
     </row>
     <row r="19" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B19" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F19"/>
     </row>
     <row r="20" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B20" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F20"/>
     </row>
@@ -2972,19 +3043,19 @@
     </row>
     <row r="33" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B33" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F33"/>
     </row>
     <row r="34" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B34" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F34"/>
     </row>
     <row r="35" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B35" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F35"/>
     </row>
@@ -3248,7 +3319,7 @@
   <sheetData>
     <row r="2" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B2" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
@@ -3349,7 +3420,7 @@
     </row>
     <row r="19" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B19" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
@@ -3599,7 +3670,7 @@
     </row>
     <row r="4" spans="2:4" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B4" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="23.15" x14ac:dyDescent="0.6">
@@ -3667,7 +3738,7 @@
     </row>
     <row r="11" spans="2:4" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="B11" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" s="22" t="str">
         <f>IF(LOWER(B11)="maça","É maça","Outra Fruta")</f>
@@ -3701,7 +3772,7 @@
     </row>
     <row r="17" spans="2:5" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B17" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="23.15" x14ac:dyDescent="0.6">
@@ -3770,7 +3841,7 @@
     </row>
     <row r="24" spans="2:5" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="B24" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24" s="22" t="str">
         <f t="shared" si="2"/>
@@ -3787,7 +3858,7 @@
     </row>
     <row r="25" spans="2:5" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="B25" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C25" s="22" t="str">
         <f t="shared" si="2"/>
@@ -3838,7 +3909,7 @@
     </row>
     <row r="30" spans="2:5" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B30" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="23.15" x14ac:dyDescent="0.6">
@@ -4656,21 +4727,21 @@
     </row>
     <row r="67" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B67" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D67"/>
       <c r="F67"/>
     </row>
     <row r="68" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B68" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D68"/>
       <c r="F68"/>
     </row>
     <row r="69" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B69" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D69"/>
       <c r="F69"/>
@@ -4840,13 +4911,13 @@
   <sheetData>
     <row r="3" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B3" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F3"/>
     </row>
     <row r="4" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B4" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F4"/>
     </row>
@@ -4863,7 +4934,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F7"/>
     </row>
@@ -4967,19 +5038,19 @@
     </row>
     <row r="18" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B18" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F18"/>
     </row>
     <row r="19" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B19" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F19"/>
     </row>
     <row r="20" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B20" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F20"/>
     </row>
@@ -4993,7 +5064,7 @@
     </row>
     <row r="24" spans="2:6" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="B24" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="22" t="str">
         <f>IF(OR(LOWER(B24)="azul",
@@ -5022,7 +5093,7 @@
     </row>
     <row r="27" spans="2:6" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="B27" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C27" s="22" t="str">
         <f t="shared" si="1"/>
@@ -5045,19 +5116,19 @@
     </row>
     <row r="33" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B33" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F33"/>
     </row>
     <row r="34" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B34" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F34"/>
     </row>
     <row r="35" spans="2:6" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B35" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F35"/>
     </row>
@@ -5147,10 +5218,10 @@
         <v>78</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R4" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.4">
@@ -5511,7 +5582,7 @@
     </row>
     <row r="29" spans="2:3" ht="23.15" x14ac:dyDescent="0.6">
       <c r="B29" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="26.15" x14ac:dyDescent="0.7">

--- a/Excel/Funcao_SE.xlsx
+++ b/Excel/Funcao_SE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F1DEFC-B27E-4359-95C0-5F3FCDD4E483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89328EE7-9AC6-4A36-ABD5-9EE30BD4BD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="902" firstSheet="6" activeTab="11" xr2:uid="{A1D71C93-AD03-4E23-96D0-6B5E4DB0459A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="902" firstSheet="6" activeTab="6" xr2:uid="{A1D71C93-AD03-4E23-96D0-6B5E4DB0459A}"/>
   </bookViews>
   <sheets>
     <sheet name="Professor Se ex. 1" sheetId="1" r:id="rId1"/>
@@ -592,7 +592,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -637,12 +637,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -728,6 +741,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1250,7 +1269,7 @@
       </c>
       <c r="D33" s="26">
         <f ca="1">TODAY()</f>
-        <v>45428</v>
+        <v>45429</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="33.450000000000003" x14ac:dyDescent="0.85">
@@ -1662,8 +1681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F949F6-4E3D-4D23-A4B1-00964BDC3B94}">
   <dimension ref="B2:G41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2062,7 +2081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D736C7B-5639-46E7-A045-1829B91CFDE5}">
   <dimension ref="B2:J79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B56" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B56" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
@@ -2874,8 +2893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C425B4F3-2642-4ACA-9045-BBFB2AD95DBC}">
   <dimension ref="B3:F43"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2922,16 +2941,28 @@
       <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="8" t="str">
+        <f>IF(OR(B8="A", B8="B", B8="C"),"Letra A, B ou C","Outra Letra")</f>
+        <v>Letra A, B ou C</v>
+      </c>
+      <c r="D8" s="8" t="str">
+        <f>IF(SUM(IF(B8={"A";"B";"C"},1,0))&gt;=1,"Letra A, B ou C","-")</f>
+        <v>Letra A, B ou C</v>
+      </c>
       <c r="F8"/>
     </row>
     <row r="9" spans="2:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="8" t="str">
+        <f t="shared" ref="C9:C13" si="0">IF(OR(B9="A", B9="B", B9="C"),"Letra A, B ou C","Outra Letra")</f>
+        <v>Letra A, B ou C</v>
+      </c>
+      <c r="D9" s="8" t="str">
+        <f>IF(SUM(IF(B9={"A";"B";"C"},1,0))&gt;=1,"Letra A, B ou C","-")</f>
+        <v>Letra A, B ou C</v>
+      </c>
       <c r="E9" s="1" t="str" cm="1">
         <f t="array" ref="E9:E10">IF(B9={"A";"B"},"-","")</f>
         <v/>
@@ -2942,8 +2973,14 @@
       <c r="B10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Outra Letra</v>
+      </c>
+      <c r="D10" s="8" t="str">
+        <f>IF(SUM(IF(B10={"A";"B";"C"},1,0))&gt;=1,"Letra A, B ou C","-")</f>
+        <v>-</v>
+      </c>
       <c r="E10" t="str">
         <v>-</v>
       </c>
@@ -2952,22 +2989,40 @@
       <c r="B11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Outra Letra</v>
+      </c>
+      <c r="D11" s="8" t="str">
+        <f>IF(SUM(IF(B11={"A";"B";"C"},1,0))&gt;=1,"Letra A, B ou C","-")</f>
+        <v>-</v>
+      </c>
     </row>
     <row r="12" spans="2:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Letra A, B ou C</v>
+      </c>
+      <c r="D12" s="8" t="str">
+        <f>IF(SUM(IF(B12={"A";"B";"C"},1,0))&gt;=1,"Letra A, B ou C","-")</f>
+        <v>Letra A, B ou C</v>
+      </c>
     </row>
     <row r="13" spans="2:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Letra A, B ou C</v>
+      </c>
+      <c r="D13" s="8" t="str">
+        <f>IF(SUM(IF(B13={"A";"B";"C"},1,0))&gt;=1,"Letra A, B ou C","-")</f>
+        <v>Letra A, B ou C</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D14" s="1" t="str" cm="1">
@@ -3010,31 +3065,48 @@
       <c r="B24" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="8" t="str">
+        <f>IF(OR(LOWER(B24)="azul",
+LOWER(B24)="verde"),"A cor é Azul ou Verde","-")</f>
+        <v>A cor é Azul ou Verde</v>
+      </c>
     </row>
     <row r="25" spans="2:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B25" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="C25" s="8" t="str">
+        <f t="shared" ref="C25:C28" si="1">IF(OR(LOWER(B25)="azul",
+LOWER(B25)="verde"),"A cor é Azul ou Verde","-")</f>
+        <v>-</v>
+      </c>
     </row>
     <row r="26" spans="2:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B26" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
     </row>
     <row r="27" spans="2:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B27" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="8"/>
+      <c r="C27" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>A cor é Azul ou Verde</v>
+      </c>
     </row>
     <row r="28" spans="2:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B28" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="8"/>
+      <c r="C28" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
     </row>
     <row r="31" spans="2:6" ht="28.3" x14ac:dyDescent="0.75">
       <c r="B31" s="18" t="s">
@@ -3071,31 +3143,46 @@
       <c r="B39" s="7">
         <v>5</v>
       </c>
-      <c r="C39" s="8"/>
+      <c r="C39" s="8" t="str">
+        <f>IF(OR(B39&lt;=10,B39&gt;=50),"Número menor que 10 ou maior que 50","-")</f>
+        <v>Número menor que 10 ou maior que 50</v>
+      </c>
     </row>
     <row r="40" spans="2:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B40" s="7">
         <v>79</v>
       </c>
-      <c r="C40" s="8"/>
+      <c r="C40" s="8" t="str">
+        <f t="shared" ref="C40:C43" si="2">IF(OR(B40&lt;=10,B40&gt;=50),"Número menor que 10 ou maior que 50","-")</f>
+        <v>Número menor que 10 ou maior que 50</v>
+      </c>
     </row>
     <row r="41" spans="2:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B41" s="7">
         <v>45</v>
       </c>
-      <c r="C41" s="8"/>
+      <c r="C41" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
     </row>
     <row r="42" spans="2:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B42" s="7">
         <v>98</v>
       </c>
-      <c r="C42" s="8"/>
+      <c r="C42" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>Número menor que 10 ou maior que 50</v>
+      </c>
     </row>
     <row r="43" spans="2:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="B43" s="7">
         <v>31</v>
       </c>
-      <c r="C43" s="8"/>
+      <c r="C43" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5195,8 +5282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C30654-D08C-4E61-948E-2209B03D6119}">
   <dimension ref="B4:T26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5205,6 +5292,7 @@
     <col min="3" max="3" width="14.765625" customWidth="1"/>
     <col min="4" max="4" width="18.84375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.4609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.4609375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.4609375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.84375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.765625" customWidth="1"/>
@@ -5225,7 +5313,7 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="R5" s="1"/>
+      <c r="R5" s="33"/>
     </row>
     <row r="6" spans="2:20" ht="33.450000000000003" x14ac:dyDescent="0.85">
       <c r="B6" s="7" t="s">
@@ -5240,20 +5328,20 @@
       </c>
       <c r="I6" s="22">
         <f t="array" ref="I6">MAX(IF(G7:G13&gt;40,G7:G13))</f>
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>76</v>
       </c>
       <c r="N6" s="22">
-        <f t="array" ref="N6">SUM(IF(L7:L13=32,1,0))</f>
+        <f t="array" ref="N6">SUM(IF(L7:L13=32,1)*1)</f>
         <v>2</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="32" t="s">
         <v>76</v>
       </c>
       <c r="T6" s="22">
-        <f t="array" ref="T6">SUM(IF(R7:R13&lt;=20,R7:R13,0))</f>
+        <f t="array" ref="T6">SUM(IF(R7:R13&lt;=20,R7:R13,0)*1)</f>
         <v>28</v>
       </c>
     </row>
@@ -5268,7 +5356,7 @@
         <v>92</v>
       </c>
       <c r="R7" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:20" ht="26.15" x14ac:dyDescent="0.7">
@@ -5290,7 +5378,7 @@
         <v>46</v>
       </c>
       <c r="G9" s="7">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="L9" s="7">
         <v>32</v>
